--- a/CBS/Analysis/DataforR.xlsx
+++ b/CBS/Analysis/DataforR.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="19">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2642,6 +2642,536 @@
         <v>7</v>
       </c>
     </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>65</v>
+      </c>
+      <c r="D43">
+        <v>30</v>
+      </c>
+      <c r="E43">
+        <v>27</v>
+      </c>
+      <c r="F43">
+        <v>25</v>
+      </c>
+      <c r="G43">
+        <v>16</v>
+      </c>
+      <c r="H43">
+        <v>30</v>
+      </c>
+      <c r="I43">
+        <v>14</v>
+      </c>
+      <c r="J43">
+        <v>6</v>
+      </c>
+      <c r="K43">
+        <v>5</v>
+      </c>
+      <c r="L43">
+        <v>5</v>
+      </c>
+      <c r="M43">
+        <v>6</v>
+      </c>
+      <c r="N43">
+        <v>92</v>
+      </c>
+      <c r="O43">
+        <v>44</v>
+      </c>
+      <c r="P43">
+        <v>29</v>
+      </c>
+      <c r="Q43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>64</v>
+      </c>
+      <c r="D44">
+        <v>28</v>
+      </c>
+      <c r="E44">
+        <v>30</v>
+      </c>
+      <c r="F44">
+        <v>24</v>
+      </c>
+      <c r="G44">
+        <v>17</v>
+      </c>
+      <c r="H44">
+        <v>29</v>
+      </c>
+      <c r="I44">
+        <v>13</v>
+      </c>
+      <c r="J44">
+        <v>6</v>
+      </c>
+      <c r="K44">
+        <v>7</v>
+      </c>
+      <c r="L44">
+        <v>4</v>
+      </c>
+      <c r="M44">
+        <v>7</v>
+      </c>
+      <c r="N44">
+        <v>90</v>
+      </c>
+      <c r="O44">
+        <v>79</v>
+      </c>
+      <c r="P44">
+        <v>55</v>
+      </c>
+      <c r="Q44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>71</v>
+      </c>
+      <c r="D45">
+        <v>27</v>
+      </c>
+      <c r="E45">
+        <v>28</v>
+      </c>
+      <c r="F45">
+        <v>27</v>
+      </c>
+      <c r="G45">
+        <v>15</v>
+      </c>
+      <c r="H45">
+        <v>23</v>
+      </c>
+      <c r="I45">
+        <v>14</v>
+      </c>
+      <c r="J45">
+        <v>5</v>
+      </c>
+      <c r="K45">
+        <v>7</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="M45">
+        <v>5</v>
+      </c>
+      <c r="N45">
+        <v>77</v>
+      </c>
+      <c r="O45">
+        <v>60</v>
+      </c>
+      <c r="P45">
+        <v>66</v>
+      </c>
+      <c r="Q45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>68</v>
+      </c>
+      <c r="D46">
+        <v>29</v>
+      </c>
+      <c r="E46">
+        <v>30</v>
+      </c>
+      <c r="F46">
+        <v>31</v>
+      </c>
+      <c r="G46">
+        <v>14</v>
+      </c>
+      <c r="H46">
+        <v>12</v>
+      </c>
+      <c r="I46">
+        <v>19</v>
+      </c>
+      <c r="J46">
+        <v>7</v>
+      </c>
+      <c r="K46">
+        <v>7</v>
+      </c>
+      <c r="L46">
+        <v>5</v>
+      </c>
+      <c r="M46">
+        <v>6</v>
+      </c>
+      <c r="N46">
+        <v>90</v>
+      </c>
+      <c r="O46">
+        <v>74</v>
+      </c>
+      <c r="P46">
+        <v>11</v>
+      </c>
+      <c r="Q46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>97</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="E47">
+        <v>28</v>
+      </c>
+      <c r="F47">
+        <v>9</v>
+      </c>
+      <c r="G47">
+        <v>8</v>
+      </c>
+      <c r="H47">
+        <v>10</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="K47">
+        <v>6</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <v>4</v>
+      </c>
+      <c r="N47">
+        <v>56</v>
+      </c>
+      <c r="O47">
+        <v>8</v>
+      </c>
+      <c r="P47">
+        <v>9</v>
+      </c>
+      <c r="Q47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>85</v>
+      </c>
+      <c r="D48">
+        <v>23</v>
+      </c>
+      <c r="E48">
+        <v>26</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>13</v>
+      </c>
+      <c r="H48">
+        <v>11</v>
+      </c>
+      <c r="I48">
+        <v>14</v>
+      </c>
+      <c r="J48">
+        <v>6</v>
+      </c>
+      <c r="K48">
+        <v>6</v>
+      </c>
+      <c r="L48">
+        <v>4</v>
+      </c>
+      <c r="M48">
+        <v>5</v>
+      </c>
+      <c r="N48">
+        <v>56</v>
+      </c>
+      <c r="O48">
+        <v>24</v>
+      </c>
+      <c r="P48">
+        <v>15</v>
+      </c>
+      <c r="Q48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>90</v>
+      </c>
+      <c r="D49">
+        <v>20</v>
+      </c>
+      <c r="E49">
+        <v>26</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>19</v>
+      </c>
+      <c r="I49">
+        <v>9</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+      <c r="K49">
+        <v>5</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <v>4</v>
+      </c>
+      <c r="N49">
+        <v>19</v>
+      </c>
+      <c r="O49">
+        <v>28</v>
+      </c>
+      <c r="P49">
+        <v>4</v>
+      </c>
+      <c r="Q49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>84</v>
+      </c>
+      <c r="D50">
+        <v>24</v>
+      </c>
+      <c r="E50">
+        <v>25</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>7</v>
+      </c>
+      <c r="H50">
+        <v>8</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="K50">
+        <v>4</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>36</v>
+      </c>
+      <c r="O50">
+        <v>23</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>96</v>
+      </c>
+      <c r="D51">
+        <v>26</v>
+      </c>
+      <c r="E51">
+        <v>28</v>
+      </c>
+      <c r="F51">
+        <v>8</v>
+      </c>
+      <c r="G51">
+        <v>8</v>
+      </c>
+      <c r="H51">
+        <v>6</v>
+      </c>
+      <c r="I51">
+        <v>10</v>
+      </c>
+      <c r="J51">
+        <v>5</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+      <c r="L51">
+        <v>3</v>
+      </c>
+      <c r="M51">
+        <v>4</v>
+      </c>
+      <c r="N51">
+        <v>72</v>
+      </c>
+      <c r="O51">
+        <v>37</v>
+      </c>
+      <c r="P51">
+        <v>19</v>
+      </c>
+      <c r="Q51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>92</v>
+      </c>
+      <c r="D52">
+        <v>22</v>
+      </c>
+      <c r="E52">
+        <v>25</v>
+      </c>
+      <c r="F52">
+        <v>-7</v>
+      </c>
+      <c r="G52">
+        <v>15</v>
+      </c>
+      <c r="H52">
+        <v>19</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>6</v>
+      </c>
+      <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="M52">
+        <v>4</v>
+      </c>
+      <c r="N52">
+        <v>49</v>
+      </c>
+      <c r="O52">
+        <v>37</v>
+      </c>
+      <c r="P52">
+        <v>2</v>
+      </c>
+      <c r="Q52">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
